--- a/data/table_2.xlsx
+++ b/data/table_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongrao/Desktop/project/AutoReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA1B2B8-2A6C-F549-AD2C-F5073C16A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634D0F4D-0BF2-F648-97D9-7DD40DF014BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="760" windowWidth="15960" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
